--- a/BackCode/接口文档.xlsx
+++ b/BackCode/接口文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Documents\大学\学习\2018零杯\404-Not-Found\BackCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300E7D09-CC34-478C-AE4F-0DE8791436A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8930F64E-BD27-42BD-819C-7E00EAAE3B39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>作用</t>
   </si>
@@ -378,6 +378,14 @@
   </si>
   <si>
     <t>reqId(string):用户的Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telNum(String)：手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movieId(String)：电影编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,78 +571,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68:F73"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -977,7 +985,7 @@
       <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="30" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="19" t="s">
@@ -994,7 +1002,7 @@
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="19"/>
       <c r="G4" s="9" t="s">
         <v>12</v>
@@ -1007,7 +1015,7 @@
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1022,7 +1030,7 @@
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1031,13 +1039,13 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -1069,7 +1077,7 @@
       <c r="D9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -1086,7 +1094,7 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="19"/>
       <c r="G10" s="9" t="s">
         <v>12</v>
@@ -1099,7 +1107,7 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="35" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1114,7 +1122,7 @@
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1134,68 +1142,68 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="13" t="s">
         <v>80</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="28" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="28" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
@@ -1206,25 +1214,25 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="9"/>
@@ -1232,16 +1240,16 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="9"/>
@@ -1249,12 +1257,14 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="28" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>87</v>
       </c>
       <c r="G21" s="9"/>
@@ -1268,7 +1278,7 @@
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -1298,7 +1308,7 @@
       <c r="D24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="36" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="19" t="s">
@@ -1313,7 +1323,7 @@
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="19"/>
       <c r="G25" s="9" t="s">
         <v>20</v>
@@ -1324,7 +1334,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="19"/>
       <c r="G26" s="9" t="s">
         <v>21</v>
@@ -1335,7 +1345,7 @@
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="19"/>
       <c r="G27" s="9" t="s">
         <v>33</v>
@@ -1346,7 +1356,7 @@
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="19"/>
       <c r="G28" s="9" t="s">
         <v>59</v>
@@ -1357,7 +1367,7 @@
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="19"/>
       <c r="G29" s="9" t="s">
         <v>60</v>
@@ -1368,7 +1378,7 @@
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="9" t="s">
         <v>13</v>
       </c>
@@ -1379,20 +1389,20 @@
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -1420,7 +1430,7 @@
       <c r="D34" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="34" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="19" t="s">
@@ -1435,7 +1445,7 @@
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="19"/>
       <c r="G35" s="9" t="s">
         <v>20</v>
@@ -1446,9 +1456,9 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="28" t="s">
+      <c r="G36" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1457,7 +1467,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="19"/>
       <c r="G37" s="9" t="s">
         <v>21</v>
@@ -1468,7 +1478,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="19"/>
       <c r="G38" s="9" t="s">
         <v>23</v>
@@ -1479,7 +1489,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="19"/>
       <c r="G39" s="9" t="s">
         <v>61</v>
@@ -1490,7 +1500,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="19"/>
       <c r="G40" s="9" t="s">
         <v>62</v>
@@ -1501,7 +1511,7 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="19"/>
       <c r="G41" s="9" t="s">
         <v>63</v>
@@ -1512,7 +1522,7 @@
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="14"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="19"/>
       <c r="G42" s="9" t="s">
         <v>60</v>
@@ -1523,7 +1533,7 @@
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="14"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="9" t="s">
         <v>13</v>
       </c>
@@ -1534,7 +1544,7 @@
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="9" t="s">
         <v>14</v>
       </c>
@@ -1550,58 +1560,60 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="31" t="s">
+      <c r="E46" s="16"/>
+      <c r="F46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="26"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="26"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
@@ -1613,7 +1625,7 @@
       <c r="C50" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E50" s="9"/>
@@ -1626,13 +1638,13 @@
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G51" s="9" t="s">
@@ -1643,9 +1655,9 @@
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="17"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="9" t="s">
         <v>25</v>
       </c>
@@ -1654,9 +1666,9 @@
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="17"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="21"/>
       <c r="G53" s="9" t="s">
         <v>21</v>
       </c>
@@ -1665,13 +1677,13 @@
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="17"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="9" t="s">
         <v>26</v>
       </c>
@@ -1680,9 +1692,9 @@
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="18"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="9" t="s">
         <v>71</v>
       </c>
@@ -1691,8 +1703,8 @@
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="15" t="s">
+      <c r="D56" s="33"/>
+      <c r="E56" s="30" t="s">
         <v>30</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -1704,21 +1716,21 @@
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="15"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
@@ -1730,7 +1742,7 @@
       <c r="C59" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E59" s="1"/>
@@ -1743,13 +1755,13 @@
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -1760,9 +1772,9 @@
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="15"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="1" t="s">
         <v>25</v>
       </c>
@@ -1771,11 +1783,11 @@
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="11" t="s">
+      <c r="D62" s="21"/>
+      <c r="E62" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="15"/>
+      <c r="F62" s="30"/>
       <c r="G62" s="1" t="s">
         <v>21</v>
       </c>
@@ -1784,19 +1796,19 @@
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="15"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="30"/>
       <c r="G63" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="11" t="s">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -1808,21 +1820,21 @@
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="12"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="32"/>
       <c r="F65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -1831,16 +1843,16 @@
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E67" s="9"/>
@@ -1862,8 +1874,8 @@
       <c r="D68" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="15" t="s">
+      <c r="E68" s="20"/>
+      <c r="F68" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="9" t="s">
@@ -1876,9 +1888,9 @@
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15" t="s">
+      <c r="E69" s="21"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30" t="s">
         <v>74</v>
       </c>
       <c r="H69" s="9" t="s">
@@ -1890,9 +1902,9 @@
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
       <c r="H70" s="9" t="s">
         <v>76</v>
       </c>
@@ -1902,9 +1914,9 @@
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15" t="s">
+      <c r="E71" s="21"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30" t="s">
         <v>77</v>
       </c>
       <c r="H71" s="9" t="s">
@@ -1916,9 +1928,9 @@
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
       <c r="H72" s="9" t="s">
         <v>21</v>
       </c>
@@ -1928,9 +1940,9 @@
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
       <c r="H73" s="9" t="s">
         <v>26</v>
       </c>
@@ -1940,7 +1952,7 @@
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="17"/>
+      <c r="E74" s="21"/>
       <c r="F74" s="9" t="s">
         <v>13</v>
       </c>
@@ -1952,7 +1964,7 @@
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
-      <c r="E75" s="18"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="9" t="s">
         <v>14</v>
       </c>
@@ -1960,47 +1972,27 @@
       <c r="H75" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="F34:F42"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="C33:C44"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="C59:C65"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F51:F55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
+  <mergeCells count="73">
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F68:F73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="E34:E44"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="E24:E31"/>
     <mergeCell ref="D34:D44"/>
     <mergeCell ref="A33:A44"/>
     <mergeCell ref="A50:A57"/>
@@ -2016,26 +2008,44 @@
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="E34:E44"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F68:F73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C59:C65"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="F34:F42"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="C33:C44"/>
+    <mergeCell ref="C50:C57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
